--- a/Labs_and_Sensors/Arrhenius_Curve/Standard_N35_values.xlsx
+++ b/Labs_and_Sensors/Arrhenius_Curve/Standard_N35_values.xlsx
@@ -24,15 +24,12 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="3" uniqueCount="3">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>Temperature (°C)</t>
   </si>
   <si>
     <t>Kinematic viscosity (cSt)</t>
-  </si>
-  <si>
-    <t>Density (kg/m3)</t>
   </si>
 </sst>
 </file>
@@ -356,7 +353,7 @@
   <dimension ref="A1:F9"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D9" sqref="D9"/>
+      <selection activeCell="D10" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -371,9 +368,7 @@
       <c r="B1" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="C1" s="1" t="s">
-        <v>2</v>
-      </c>
+      <c r="C1" s="1"/>
       <c r="D1" s="1"/>
       <c r="E1" s="1"/>
       <c r="F1" s="1"/>
@@ -385,9 +380,7 @@
       <c r="B2" s="1">
         <v>86.54</v>
       </c>
-      <c r="C2" s="1">
-        <v>0.8619</v>
-      </c>
+      <c r="C2" s="1"/>
       <c r="D2" s="1"/>
       <c r="E2" s="1"/>
       <c r="F2" s="1"/>
@@ -399,9 +392,7 @@
       <c r="B3" s="1">
         <v>65.66</v>
       </c>
-      <c r="C3" s="1">
-        <v>0.85880000000000001</v>
-      </c>
+      <c r="C3" s="1"/>
       <c r="D3" s="1"/>
       <c r="E3" s="1"/>
       <c r="F3" s="1"/>
@@ -413,9 +404,7 @@
       <c r="B4" s="1">
         <v>35.47</v>
       </c>
-      <c r="C4" s="1">
-        <v>0.85070000000000001</v>
-      </c>
+      <c r="C4" s="1"/>
       <c r="D4" s="1"/>
       <c r="E4" s="1"/>
       <c r="F4" s="1"/>
@@ -427,9 +416,7 @@
       <c r="B5" s="1">
         <v>32.19</v>
       </c>
-      <c r="C5" s="1">
-        <v>0.84930000000000005</v>
-      </c>
+      <c r="C5" s="1"/>
       <c r="D5" s="1"/>
       <c r="E5" s="1"/>
       <c r="F5" s="1"/>
@@ -441,9 +428,7 @@
       <c r="B6" s="1">
         <v>21.64</v>
       </c>
-      <c r="C6" s="1">
-        <v>0.84299999999999997</v>
-      </c>
+      <c r="C6" s="1"/>
       <c r="D6" s="1"/>
       <c r="E6" s="1"/>
       <c r="F6" s="1"/>
